--- a/MAIN_PCB/DOC/sd card lenght equalization.xlsx
+++ b/MAIN_PCB/DOC/sd card lenght equalization.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Folder\MCU\decktrix\MAIN_PCB\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1B6E1-1B79-4D6E-886E-6B0DD45D9537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED07D0-4299-4D8D-A25B-EEB8B8AF7A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SD card EMMC1" sheetId="1" r:id="rId1"/>
+    <sheet name="WIFI EMMC 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>D1</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>missing</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>after</t>
   </si>
 </sst>
 </file>
@@ -382,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +402,9 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -493,6 +503,131 @@
       <c r="C10">
         <f>B2</f>
         <v>39.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC09ACC-5F73-4EC0-B479-E7D4CDD0C16F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="C2">
+        <f>$C$10-B2</f>
+        <v>3.8900000000000006</v>
+      </c>
+      <c r="D2">
+        <v>37.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>35.15</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">$C$10-B3</f>
+        <v>3.8999999999999986</v>
+      </c>
+      <c r="D3">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>35.781100000000002</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.268899999999995</v>
+      </c>
+      <c r="D4">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>34.71</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.3399999999999963</v>
+      </c>
+      <c r="D5">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>36.25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="D6">
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>B7</f>
+        <v>39.049999999999997</v>
       </c>
     </row>
   </sheetData>
